--- a/va_facility_data_2025-02-20/Aiken VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Aiken%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Aiken VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Aiken%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R710b3cca69714baa9958bd6dce5c14a3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf824fc5cb6044379b6e2db70e880e744"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8e5307e2f1ad44fdbad3d587a2f414df"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9d2fb645c54f4ac2a88acc9a6adcfa92"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0f9b812f14584d7ba4b7c2adc76a29a2"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R744b7964a06a423e8fb86fe59cd36c35"/>
   </x:sheets>
 </x:workbook>
 </file>
